--- a/Hardware/Nvidia.xlsx
+++ b/Hardware/Nvidia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E7C971-CE45-914B-AACD-D4399C9A75B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD8AFF2-3F1C-2644-9911-3DCA4ACF9128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="27140" windowHeight="28120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="27140" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Nvidia</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -893,25 +927,9 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -942,14 +960,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -981,6 +995,22 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,6 +1027,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1637,8 +1673,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32281793880930937"/>
-          <c:y val="0.90323910455960443"/>
+          <c:x val="0.29990627854800306"/>
+          <c:y val="0.90578684989217118"/>
           <c:w val="0.41872908794449942"/>
           <c:h val="5.9937146014642909E-2"/>
         </c:manualLayout>
@@ -2222,13 +2258,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>42333</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>62089</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>1481667</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2254,6 +2290,446 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yv52&amp;q=XNAS%3aNVDA&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1yv52</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>280</v>
+    <v>108.13</v>
+    <v>1.7734000000000001</v>
+    <v>1.56</v>
+    <v>5.803E-3</v>
+    <v>0.19</v>
+    <v>7.027E-4</v>
+    <v>USD</v>
+    <v>NVIDIA Corporation accelerates computing to help solve the computational problems. The Company has two segments. The Compute &amp; Networking segment includes its data center accelerated computing platform; networking; automotive artificial intelligence (AI) cockpit, autonomous driving development agreements and autonomous vehicle solutions; electric vehicle computing platforms; Jetson for robotics and other embedded platforms; NVIDIA AI Enterprise and other software; and cryptocurrency mining processors (CMP). The Graphics segment includes GeForce GPUs for gaming and personal computers (PCs), the GeForce NOW game streaming service and related infrastructure, and solutions for gaming platforms; Quadro/NVIDIA RTX GPUs for enterprise workstation graphics; virtual GPU (vGPU), software for cloud-based visual and virtual computing; automotive platforms for infotainment systems; and omniverse enterprise software for building and operating metaverse and three-dimensional Internet applications.</v>
+    <v>26196</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>2788 San Tomas Expressway, SANTA CLARA, CA, 95051 US</v>
+    <v>270.8</v>
+    <v>Semiconductors &amp; Semiconductor Equipment</v>
+    <v>Stock</v>
+    <v>45022.999999316409</v>
+    <v>0</v>
+    <v>264.27</v>
+    <v>667813900000</v>
+    <v>NVIDIA CORPORATION</v>
+    <v>NVIDIA CORPORATION</v>
+    <v>265.83999999999997</v>
+    <v>154.35990000000001</v>
+    <v>268.81</v>
+    <v>270.37</v>
+    <v>270.56</v>
+    <v>2470000000</v>
+    <v>NVDA</v>
+    <v>NVIDIA CORPORATION (XNAS:NVDA)</v>
+    <v>39765434</v>
+    <v>48355491</v>
+    <v>1998</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2556,10 +3032,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI102" sqref="AI102"/>
+      <selection pane="bottomRight" activeCell="AB88" sqref="AB88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2572,8 +3048,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1999</v>
@@ -2650,19 +3126,19 @@
       <c r="Z1" s="8">
         <v>2023</v>
       </c>
-      <c r="AA1" s="26">
+      <c r="AA1" s="21">
         <v>2024</v>
       </c>
-      <c r="AB1" s="26">
+      <c r="AB1" s="21">
         <v>2025</v>
       </c>
-      <c r="AC1" s="26">
+      <c r="AC1" s="21">
         <v>2026</v>
       </c>
-      <c r="AD1" s="26">
+      <c r="AD1" s="21">
         <v>2027</v>
       </c>
-      <c r="AE1" s="26">
+      <c r="AE1" s="21">
         <v>2028</v>
       </c>
     </row>
@@ -2840,37 +3316,37 @@
       <c r="Z3" s="1">
         <v>26974000000</v>
       </c>
-      <c r="AA3" s="27">
+      <c r="AA3" s="22">
         <v>29627000000</v>
       </c>
-      <c r="AB3" s="27">
+      <c r="AB3" s="22">
         <v>36085000000</v>
       </c>
-      <c r="AC3" s="27">
+      <c r="AC3" s="22">
         <v>54755000000</v>
       </c>
-      <c r="AD3" s="27">
+      <c r="AD3" s="22">
         <v>65013000000</v>
       </c>
-      <c r="AE3" s="27">
+      <c r="AE3" s="22">
         <v>73140000000</v>
       </c>
-      <c r="AF3" s="54" t="s">
+      <c r="AF3" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG3" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="AG3" s="55" t="s">
+      <c r="AH3" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AH3" s="55" t="s">
+      <c r="AI3" s="43" t="s">
         <v>113</v>
-      </c>
-      <c r="AI3" s="55" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2989,19 +3465,19 @@
         <f t="shared" si="12"/>
         <v>0.12500576807715369</v>
       </c>
-      <c r="AF4" s="56">
+      <c r="AF4" s="44">
         <f>(Z4+Y4+X4)/3</f>
         <v>0.38118556093218037</v>
       </c>
-      <c r="AG4" s="56">
+      <c r="AG4" s="44">
         <f>(Z20+Y20+X20)/3</f>
         <v>0.40909729531125477</v>
       </c>
-      <c r="AH4" s="56">
+      <c r="AH4" s="44">
         <f>(Z29+Y29+X29)/3</f>
         <v>0.41613951529322118</v>
       </c>
-      <c r="AI4" s="56">
+      <c r="AI4" s="44">
         <f>(Z105+Y105+X105)/3</f>
         <v>9.9826876843558135E-2</v>
       </c>
@@ -3168,17 +3644,17 @@
       <c r="Z6" s="10">
         <v>15356000000</v>
       </c>
-      <c r="AF6" s="54" t="s">
+      <c r="AF6" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG6" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AG6" s="55" t="s">
+      <c r="AH6" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AH6" s="55" t="s">
+      <c r="AI6" s="43" t="s">
         <v>117</v>
-      </c>
-      <c r="AI6" s="55" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3260,19 +3736,19 @@
       <c r="Z7" s="2">
         <v>0.56930000000000003</v>
       </c>
-      <c r="AF7" s="56">
+      <c r="AF7" s="44">
         <f>Z7</f>
         <v>0.56930000000000003</v>
       </c>
-      <c r="AG7" s="57">
+      <c r="AG7" s="45">
         <f>Z21</f>
         <v>0.23580000000000001</v>
       </c>
-      <c r="AH7" s="57">
+      <c r="AH7" s="45">
         <f>Z30</f>
         <v>0.16189999999999999</v>
       </c>
-      <c r="AI7" s="57">
+      <c r="AI7" s="45">
         <f>Z106/Z3</f>
         <v>0.14117298138948617</v>
       </c>
@@ -3359,7 +3835,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3461,17 +3937,17 @@
         <f t="shared" si="13"/>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AF9" s="54" t="s">
+      <c r="AF9" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG9" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" s="55" t="s">
+      <c r="AH9" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="AH9" s="55" t="s">
+      <c r="AI9" s="43" t="s">
         <v>99</v>
-      </c>
-      <c r="AI9" s="55" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3553,19 +4029,19 @@
       <c r="Z10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF10" s="56">
+      <c r="AF10" s="44">
         <f>Z9</f>
         <v>0.27207681471046191</v>
       </c>
-      <c r="AG10" s="57">
+      <c r="AG10" s="45">
         <f>Z13</f>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AH10" s="57">
+      <c r="AH10" s="45">
         <f>Z80</f>
         <v>0.10043004374582931</v>
       </c>
-      <c r="AI10" s="57">
+      <c r="AI10" s="45">
         <f>Z89</f>
         <v>6.7954326388373995E-2</v>
       </c>
@@ -3729,22 +4205,22 @@
       <c r="Z12" s="1">
         <v>2440000000</v>
       </c>
-      <c r="AF12" s="54" t="s">
+      <c r="AF12" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG12" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="AG12" s="55" t="s">
+      <c r="AH12" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="AH12" s="55" t="s">
+      <c r="AI12" s="43" t="s">
         <v>121</v>
-      </c>
-      <c r="AI12" s="55" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3846,15 +4322,15 @@
         <f t="shared" si="14"/>
         <v>9.0457477570994288E-2</v>
       </c>
-      <c r="AF13" s="56">
+      <c r="AF13" s="44">
         <f>Z28/Z72</f>
         <v>0.19763811592235644</v>
       </c>
-      <c r="AG13" s="57">
+      <c r="AG13" s="45">
         <f>Z28/Z54</f>
         <v>0.10606575688407557</v>
       </c>
-      <c r="AH13" s="57">
+      <c r="AH13" s="45">
         <f>Z22/(Z72+Z56+Z61)</f>
         <v>0.12439627753563436</v>
       </c>
@@ -4022,17 +4498,17 @@
       <c r="Z15" s="1">
         <v>11132000000</v>
       </c>
-      <c r="AF15" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG15" s="55" t="s">
+      <c r="AF15" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG15" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH15" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="AH15" s="55" t="s">
+      <c r="AI15" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="AI15" s="55" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4118,17 +4594,17 @@
         <f>(Z35+Y35+X35+W35+V35)/5</f>
         <v>-1.5968067059461103E-3</v>
       </c>
-      <c r="AG16" s="58">
+      <c r="AG16" s="46">
         <f>AH101/Z3</f>
-        <v>21.502187291465855</v>
-      </c>
-      <c r="AH16" s="58">
+        <v>24.757688885593534</v>
+      </c>
+      <c r="AH16" s="46">
         <f>AH101/Z28</f>
-        <v>132.78388278388277</v>
-      </c>
-      <c r="AI16" s="59">
+        <v>152.88779761904763</v>
+      </c>
+      <c r="AI16" s="47">
         <f>AH101/Z106</f>
-        <v>152.31092436974791</v>
+        <v>175.37129726890757</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4290,8 +4766,8 @@
       <c r="Z18" s="1">
         <v>1544000000</v>
       </c>
-      <c r="AF18" s="54" t="s">
-        <v>160</v>
+      <c r="AF18" s="42" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -4373,14 +4849,14 @@
       <c r="Z19" s="10">
         <v>6361000000</v>
       </c>
-      <c r="AF19" s="60">
+      <c r="AF19" s="48">
         <f>Z40-Z56-Z61</f>
         <v>1441000000</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5124,7 +5600,7 @@
     </row>
     <row r="29" spans="1:35" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5628,102 +6104,102 @@
     </row>
     <row r="35" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="23">
+      <c r="C35" s="20">
         <f>(C34-B34)/B34</f>
         <v>0.31147483922291586</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="20">
         <f t="shared" ref="D35:I35" si="51">(D34-C34)/C34</f>
         <v>0.10795666072548654</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="20">
         <f t="shared" si="51"/>
         <v>7.3951310574355153E-2</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="20">
         <f t="shared" si="51"/>
         <v>-1.567157973310709E-2</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="20">
         <f t="shared" si="51"/>
         <v>2.5618641628257301E-2</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="20">
         <f t="shared" si="51"/>
         <v>2.229787947647504E-2</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="20">
         <f t="shared" si="51"/>
         <v>3.6209065804180866E-2</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="20">
         <f t="shared" ref="J35" si="52">(J34-I34)/I34</f>
         <v>6.996955446927651E-2</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="20">
         <f t="shared" ref="K35" si="53">(K34-J34)/J34</f>
         <v>3.3680993862574046E-2</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="20">
         <f t="shared" ref="L35" si="54">(L34-K34)/K34</f>
         <v>-9.6592894391592993E-2</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="20">
         <f t="shared" ref="M35" si="55">(M34-L34)/L34</f>
         <v>2.6417283617270484E-3</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="20">
         <f t="shared" ref="N35" si="56">(N34-M34)/M34</f>
         <v>7.1164210825111818E-2</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O35" s="20">
         <f t="shared" ref="O35" si="57">(O34-N34)/N34</f>
         <v>4.7032023972114069E-2</v>
       </c>
-      <c r="P35" s="23">
+      <c r="P35" s="20">
         <f t="shared" ref="P35" si="58">(P34-O34)/O34</f>
         <v>1.3929922076152188E-2</v>
       </c>
-      <c r="Q35" s="23">
+      <c r="Q35" s="20">
         <f t="shared" ref="Q35" si="59">(Q34-P34)/P34</f>
         <v>-4.8707351065753322E-2</v>
       </c>
-      <c r="R35" s="23">
+      <c r="R35" s="20">
         <f t="shared" ref="R35" si="60">(R34-Q34)/Q34</f>
         <v>-5.2898403241623031E-2</v>
       </c>
-      <c r="S35" s="23">
+      <c r="S35" s="20">
         <f t="shared" ref="S35" si="61">(S34-R34)/R34</f>
         <v>1.0535139627895743E-2</v>
       </c>
-      <c r="T35" s="23">
+      <c r="T35" s="20">
         <f t="shared" ref="T35" si="62">(T34-S34)/S34</f>
         <v>0.14059753954305801</v>
       </c>
-      <c r="U35" s="23">
+      <c r="U35" s="20">
         <f t="shared" ref="U35" si="63">(U34-T34)/T34</f>
         <v>-2.6194144838212634E-2</v>
       </c>
-      <c r="V35" s="23">
+      <c r="V35" s="20">
         <f t="shared" ref="V35" si="64">(V34-U34)/U34</f>
         <v>-1.1075949367088608E-2</v>
       </c>
-      <c r="W35" s="23">
+      <c r="W35" s="20">
         <f t="shared" ref="W35" si="65">(W34-V34)/V34</f>
         <v>-1.12E-2</v>
       </c>
-      <c r="X35" s="23">
+      <c r="X35" s="20">
         <f t="shared" ref="X35" si="66">(X34-W34)/W34</f>
         <v>1.6181229773462782E-2</v>
       </c>
-      <c r="Y35" s="23">
+      <c r="Y35" s="20">
         <f t="shared" ref="Y35" si="67">(Y34-X34)/X34</f>
         <v>9.1560509554140124E-3</v>
       </c>
-      <c r="Z35" s="23">
+      <c r="Z35" s="20">
         <f t="shared" ref="Z35" si="68">(Z34-Y34)/Y34</f>
         <v>-1.1045364891518738E-2</v>
       </c>
@@ -9250,7 +9726,7 @@
     </row>
     <row r="80" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:Z80" si="69">B79/B3</f>
@@ -9592,10 +10068,10 @@
       <c r="Z83" s="1">
         <v>-2554000000</v>
       </c>
-      <c r="AG83" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH83" s="65"/>
+      <c r="AG83" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH83" s="63"/>
     </row>
     <row r="84" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9676,10 +10152,10 @@
       <c r="Z84" s="1">
         <v>-551000000</v>
       </c>
-      <c r="AG84" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH84" s="67"/>
+      <c r="AG84" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH84" s="65"/>
     </row>
     <row r="85" spans="1:34" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9760,10 +10236,10 @@
       <c r="Z85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG85" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH85" s="21">
+      <c r="AG85" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH85" s="51">
         <f>Z17</f>
         <v>262000000</v>
       </c>
@@ -9847,10 +10323,10 @@
       <c r="Z86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG86" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH86" s="21">
+      <c r="AG86" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH86" s="51">
         <f>Z56</f>
         <v>1250000000</v>
       </c>
@@ -9934,10 +10410,10 @@
       <c r="Z87" s="10">
         <v>5641000000</v>
       </c>
-      <c r="AG87" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH87" s="21">
+      <c r="AG87" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH87" s="51">
         <f>Z61</f>
         <v>10605000000</v>
       </c>
@@ -10021,17 +10497,17 @@
       <c r="Z88" s="1">
         <v>-1833000000</v>
       </c>
-      <c r="AG88" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH88" s="25">
+      <c r="AG88" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH88" s="53">
         <f>AH85/(AH86+AH87)</f>
         <v>2.210037958667229E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:Z89" si="70">(-1*B88)/B3</f>
@@ -10133,10 +10609,10 @@
         <f t="shared" si="70"/>
         <v>6.7954326388373995E-2</v>
       </c>
-      <c r="AG89" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH89" s="21">
+      <c r="AG89" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH89" s="51">
         <f>Z27</f>
         <v>187000000</v>
       </c>
@@ -10220,10 +10696,10 @@
       <c r="Z90" s="1">
         <v>-49000000</v>
       </c>
-      <c r="AG90" s="20" t="s">
+      <c r="AG90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AH90" s="21">
+      <c r="AH90" s="51">
         <f>Z25</f>
         <v>4181000000</v>
       </c>
@@ -10307,10 +10783,10 @@
       <c r="Z91" s="1">
         <v>-11897000000</v>
       </c>
-      <c r="AG91" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH91" s="25">
+      <c r="AG91" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH91" s="53">
         <f>AH89/AH90</f>
         <v>4.4726142071274816E-2</v>
       </c>
@@ -10394,10 +10870,10 @@
       <c r="Z92" s="1">
         <v>21231000000</v>
       </c>
-      <c r="AG92" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH92" s="29">
+      <c r="AG92" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH92" s="55">
         <f>AH88*(1-AH91)</f>
         <v>2.1111914869449685E-2</v>
       </c>
@@ -10482,7 +10958,7 @@
         <v>-77000000</v>
       </c>
       <c r="AG93" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH93" s="67"/>
     </row>
@@ -10565,10 +11041,10 @@
       <c r="Z94" s="10">
         <v>7375000000</v>
       </c>
-      <c r="AG94" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH94" s="22">
+      <c r="AG94" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH94" s="56">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10651,11 +11127,12 @@
       <c r="Z95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG95" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH95" s="30">
-        <v>1.79</v>
+      <c r="AG95" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH95" s="57" cm="1">
+        <f t="array" ref="AH95">_FV(A1,"Beta")</f>
+        <v>1.7734000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -10737,10 +11214,10 @@
       <c r="Z96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG96" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH96" s="22">
+      <c r="AG96" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10823,12 +11300,12 @@
       <c r="Z97" s="1">
         <v>-10039000000</v>
       </c>
-      <c r="AG97" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH97" s="29">
+      <c r="AG97" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH97" s="55">
         <f>(AH94)+((AH95)*(AH96-AH94))</f>
-        <v>0.11800950000000002</v>
+        <v>0.11729487000000001</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -10911,7 +11388,7 @@
         <v>-398000000</v>
       </c>
       <c r="AG98" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH98" s="67"/>
     </row>
@@ -10994,10 +11471,10 @@
       <c r="Z99" s="1">
         <v>-1180000000</v>
       </c>
-      <c r="AG99" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH99" s="21">
+      <c r="AG99" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH99" s="51">
         <f>AH86+AH87</f>
         <v>11855000000</v>
       </c>
@@ -11081,12 +11558,12 @@
       <c r="Z100" s="10">
         <v>-11617000000</v>
       </c>
-      <c r="AG100" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH100" s="25">
+      <c r="AG100" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH100" s="53">
         <f>AH99/AH103</f>
-        <v>2.003024389419706E-2</v>
+        <v>1.7442316398469902E-2</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11168,11 +11645,12 @@
       <c r="Z101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG101" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH101" s="31">
-        <v>580000000000</v>
+      <c r="AG101" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH101" s="36" cm="1">
+        <f t="array" ref="AH101">_FV(A1,"Market cap",TRUE)</f>
+        <v>667813900000</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11254,12 +11732,12 @@
       <c r="Z102" s="10">
         <v>1399000000</v>
       </c>
-      <c r="AG102" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH102" s="25">
+      <c r="AG102" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH102" s="53">
         <f>AH101/AH103</f>
-        <v>0.97996975610580295</v>
+        <v>0.98255768360153006</v>
       </c>
     </row>
     <row r="103" spans="1:34" ht="20" x14ac:dyDescent="0.25">
@@ -11341,12 +11819,12 @@
       <c r="Z103" s="1">
         <v>1990000000</v>
       </c>
-      <c r="AG103" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH103" s="32">
+      <c r="AG103" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH103" s="58">
         <f>AH99+AH101</f>
-        <v>591855000000</v>
+        <v>679668900000</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11428,14 +11906,14 @@
       <c r="Z104" s="11">
         <v>3389000000</v>
       </c>
-      <c r="AG104" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH104" s="67"/>
+      <c r="AG104" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH104" s="65"/>
     </row>
     <row r="105" spans="1:34" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15">
@@ -11540,12 +12018,12 @@
       <c r="AD105" s="15"/>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
-      <c r="AG105" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH105" s="34">
+      <c r="AG105" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH105" s="24">
         <f>(AH100*AH92)+(AH102*AH97)</f>
-        <v>0.11606861773707638</v>
+        <v>0.11561721646447311</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11627,33 +12105,33 @@
       <c r="Z106" s="1">
         <v>3808000000</v>
       </c>
-      <c r="AA106" s="35">
+      <c r="AA106" s="25">
         <f>Z106*(1+$AH$106)</f>
         <v>4680846685.5156059</v>
       </c>
-      <c r="AB106" s="35">
+      <c r="AB106" s="25">
         <f t="shared" ref="AB106:AE106" si="89">AA106*(1+$AH$106)</f>
         <v>5753761999.291605</v>
       </c>
-      <c r="AC106" s="35">
+      <c r="AC106" s="25">
         <f t="shared" si="89"/>
         <v>7072604459.986805</v>
       </c>
-      <c r="AD106" s="35">
+      <c r="AD106" s="25">
         <f t="shared" si="89"/>
         <v>8693743998.0283947</v>
       </c>
-      <c r="AE106" s="35">
+      <c r="AE106" s="25">
         <f t="shared" si="89"/>
         <v>10686471317.723845</v>
       </c>
-      <c r="AF106" s="36" t="s">
+      <c r="AF106" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG106" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="AG106" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH106" s="38">
+      <c r="AH106" s="28">
         <f>(SUM(AA4:AE4)/5)</f>
         <v>0.22921394052405616</v>
       </c>
@@ -11685,138 +12163,139 @@
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
-      <c r="AA107" s="36"/>
-      <c r="AB107" s="36"/>
-      <c r="AC107" s="36"/>
-      <c r="AD107" s="36"/>
-      <c r="AE107" s="39">
+      <c r="AA107" s="26"/>
+      <c r="AB107" s="26"/>
+      <c r="AC107" s="26"/>
+      <c r="AD107" s="26"/>
+      <c r="AE107" s="29">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>120278899283.29758</v>
-      </c>
-      <c r="AF107" s="40" t="s">
+        <v>120878057482.1713</v>
+      </c>
+      <c r="AF107" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG107" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AG107" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH107" s="42">
+      <c r="AH107" s="32">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="39">
+      <c r="AA108" s="29">
         <f t="shared" ref="AA108:AC108" si="90">AA107+AA106</f>
         <v>4680846685.5156059</v>
       </c>
-      <c r="AB108" s="39">
+      <c r="AB108" s="29">
         <f t="shared" si="90"/>
         <v>5753761999.291605</v>
       </c>
-      <c r="AC108" s="39">
+      <c r="AC108" s="29">
         <f t="shared" si="90"/>
         <v>7072604459.986805</v>
       </c>
-      <c r="AD108" s="39">
+      <c r="AD108" s="29">
         <f>AD107+AD106</f>
         <v>8693743998.0283947</v>
       </c>
-      <c r="AE108" s="39">
+      <c r="AE108" s="29">
         <f>AE107+AE106</f>
-        <v>130965370601.02142</v>
-      </c>
-      <c r="AF108" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG108" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH108" s="44">
+        <v>131564528799.89514</v>
+      </c>
+      <c r="AF108" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG108" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH108" s="34">
         <f>AH105</f>
-        <v>0.11606861773707638</v>
+        <v>0.11561721646447311</v>
       </c>
     </row>
     <row r="109" spans="1:34" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB109" s="63"/>
+      <c r="AA109" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB109" s="61"/>
     </row>
     <row r="110" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB110" s="46">
+      <c r="AA110" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB110" s="36">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>95135477729.784988</v>
+        <v>95656008995.288788</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB111" s="46">
+      <c r="AA111" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB111" s="36">
         <f>Z40</f>
         <v>13296000000</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB112" s="46">
+      <c r="AA112" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB112" s="36">
         <f>AH99</f>
         <v>11855000000</v>
       </c>
     </row>
     <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB113" s="46">
+      <c r="AA113" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB113" s="36">
         <f>AB110+AB111-AB112</f>
-        <v>96576477729.784988</v>
+        <v>97097008995.288788</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB114" s="61">
+      <c r="AA114" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB114" s="49">
         <f>Z34*(1+(5*AF16))</f>
         <v>2486984027.9409657</v>
       </c>
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB115" s="49">
+      <c r="AA115" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB115" s="38">
         <f>AB113/AB114</f>
-        <v>38.83276958949471</v>
+        <v>39.042071804408714</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB116" s="50">
-        <v>232.88</v>
+      <c r="AA116" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB116" s="59" cm="1">
+        <f t="array" ref="AB116">_FV(A1,"Price")</f>
+        <v>270.37</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB117" s="52">
+      <c r="AA117" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB117" s="40">
         <f>AB115/AB116-1</f>
-        <v>-0.83324987294102237</v>
+        <v>-0.85559761880234975</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB118" s="53" t="str">
+      <c r="AA118" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB118" s="41" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
